--- a/documento/Requerimientos funcionales.xlsx
+++ b/documento/Requerimientos funcionales.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cuello Lucas Oscar\universidad\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cuello Lucas Oscar\proyecto-IS-3304\documento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>MiGranDT</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>Cargar calificaciones</t>
+  </si>
+  <si>
+    <t>Un usuario puede crear torneos no oficiales llamados torneos de amigos.</t>
+  </si>
+  <si>
+    <t>Un nuevo torneo</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>El usuario debe poder crear sus propios torneos, eligiendo un nombre y seleccionando los jugadores que van a participar del mismo.</t>
+  </si>
+  <si>
+    <t>Un usuario debe poder cargar las calificacion de todos los jugadores.</t>
+  </si>
+  <si>
+    <t>nuevas calficaciones de los jugadores</t>
+  </si>
+  <si>
+    <t>base de datos</t>
+  </si>
+  <si>
+    <t>Solo puede ser un usuario supervisor</t>
+  </si>
+  <si>
+    <t>el usuario, por club debe poder cargar en un listado las calificaciones de todos los jugadores.</t>
   </si>
 </sst>
 </file>
@@ -412,11 +439,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,6 +468,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,24 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -475,22 +511,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58:H58"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,84 +850,84 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="9">
         <v>42896</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -912,14 +939,14 @@
       <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
@@ -928,55 +955,55 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="L9" s="27" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="L9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1015,84 +1042,84 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="9">
         <v>42896</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1104,15 +1131,15 @@
       <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="35" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -1120,120 +1147,120 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="9">
         <v>42899</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="17"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
@@ -1249,122 +1276,124 @@
         <v>39</v>
       </c>
       <c r="F34" s="39"/>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="22"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="26"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="17"/>
+      <c r="C44" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
@@ -1374,118 +1403,126 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="4"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="17"/>
+      <c r="C47" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G56" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="22"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="26"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="17"/>
+      <c r="C58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="15" t="s">
+      <c r="D59" s="24"/>
+      <c r="E59" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="15"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="4" t="s">
         <v>10</v>
       </c>
@@ -1493,63 +1530,101 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="7"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="17"/>
+      <c r="C61" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:H62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:H48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="L9:R10"/>
@@ -1566,51 +1641,21 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:H10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documento/Requerimientos funcionales.xlsx
+++ b/documento/Requerimientos funcionales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>MiGranDT</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>el usuario, por club debe poder cargar en un listado las calificaciones de todos los jugadores.</t>
+  </si>
+  <si>
+    <t>Administrar Club</t>
+  </si>
+  <si>
+    <t>El usuario supervisor debe poder marcar un Club como de primera</t>
+  </si>
+  <si>
+    <t>Club de primera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario supervisor debe poder marcar que equipos participan en la primera divisíon. </t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -451,20 +463,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,12 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -833,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R63"/>
+  <dimension ref="B1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,84 +868,84 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="9">
         <v>42896</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -939,14 +957,14 @@
       <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
@@ -955,55 +973,55 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="L9" s="25" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="L9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1042,84 +1060,84 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="9">
         <v>42896</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1131,14 +1149,14 @@
       <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="15" t="s">
         <v>30</v>
       </c>
@@ -1147,120 +1165,120 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="9">
         <v>42899</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="35"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
@@ -1270,12 +1288,12 @@
     </row>
     <row r="34" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="16" t="s">
         <v>30</v>
       </c>
@@ -1284,116 +1302,116 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="40" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="31"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="19"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
@@ -1403,126 +1421,126 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="19"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="30"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="31"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="35"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="19"/>
+      <c r="F59" s="26"/>
       <c r="G59" s="4" t="s">
         <v>10</v>
       </c>
@@ -1532,12 +1550,12 @@
     </row>
     <row r="60" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="36" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="36"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="4" t="s">
         <v>49</v>
       </c>
@@ -1546,40 +1564,171 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="18"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="22"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="35"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="39"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="22"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="22"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="91">
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="B47:B48"/>
@@ -1656,6 +1805,21 @@
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="E60:F60"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
